--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_08.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,147 +505,8587 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702175.0122638</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702177.4237573</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702175.0122638.png</t>
+          <t>1731872802.9913878</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702177.4237573.png</t>
+          <t>1731872805.0381963</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBERP1731872802.9913878.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2949</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2946.5</v>
+          <t>./test_images/SBERP1731872805.0381963.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>283.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08</v>
+        <v>282.73</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.9699999999999704</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SBERP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1731872805.450572</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1731872805.7612085</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872805.450572.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872805.7612085.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>283.18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SBERP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1731872806.9871562</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1731872807.3906908</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872806.9871562.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872807.3906908.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4099999999999682</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SBERP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1731872807.7756703</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1731872808.1959465</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872807.7756703.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/SBERP1731872808.1959465.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>283.01</v>
+      </c>
+      <c r="L6" t="n">
+        <v>283.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731872808.6168206</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731872810.222687</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872808.6168206.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872810.222687.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>283.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>282.73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.9699999999999704</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731872810.5687604</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1731872810.8121402</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872810.5687604.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872810.8121402.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>283.18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731872811.8214142</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731872812.172475</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872811.8214142.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872812.172475.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4099999999999682</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731872812.5215688</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731872812.90352</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872812.5215688.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872812.90352.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>283.01</v>
+      </c>
+      <c r="L10" t="n">
+        <v>283.39</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731872814.4598212</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731872815.556639</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872814.4598212.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872815.556639.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>284.13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>284.32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731872816.4990287</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731872816.9862273</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872816.4990287.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872816.9862273.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>284.89</v>
+      </c>
+      <c r="L12" t="n">
+        <v>284.71</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731872817.3620884</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731872818.0306666</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872817.3620884.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872818.0306666.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>284.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>284.64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731872818.4596438</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731872820.2858477</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872818.4596438.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872820.2858477.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>284.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>283.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.9599999999999795</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731872820.2998106</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731872820.8424895</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872820.2998106.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872820.8424895.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>283.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>283.73</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731872821.8903072</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731872822.3741248</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872821.8903072.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872822.3741248.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>284.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>283.83</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2700000000000387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731872822.6356444</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731872822.6356444.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>283.59</v>
+      </c>
+      <c r="L17" t="n">
+        <v>282.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.7399999999999523</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731872827.3106742</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731872827.9555857</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872827.3106742.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872827.9555857.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>130.69</v>
+      </c>
+      <c r="L18" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731872828.590794</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731872831.098389</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872828.590794.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872831.098389.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>129.79</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731872831.4297013</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731872831.8478525</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872831.4297013.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872831.8478525.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>129.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.539999999999992</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731872833.3890646</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731872833.7140632</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872833.3890646.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872833.7140632.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>129.41</v>
+      </c>
+      <c r="L21" t="n">
+        <v>129.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731872833.7289953</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731872833.8623538</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872833.7289953.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872833.8623538.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>129.43</v>
+      </c>
+      <c r="L22" t="n">
+        <v>129.42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01000000000001933</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731872833.8763404</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731872834.0137825</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872833.8763404.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.0137825.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>129.42</v>
+      </c>
+      <c r="L23" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731872834.0287156</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731872834.2862923</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.0287156.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.2862923.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>129.49</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731872834.3613427</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731872834.4641495</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.3613427.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.4641495.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>129.35</v>
+      </c>
+      <c r="L25" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731872834.898144</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731872835.0286288</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872834.898144.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872835.0286288.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>129.71</v>
+      </c>
+      <c r="L26" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.210000000000008</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731872835.3120425</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731872835.3120425.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="L27" t="n">
+        <v>129.13</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731872835.7643929</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731872836.5138917</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872835.7643929.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872836.5138917.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6485.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6511.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731872838.6219542</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731872839.6348767</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872838.6219542.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872839.6348767.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6532</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6523.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731872839.9034865</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731872840.6021674</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872839.9034865.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872840.6021674.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6510.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6520</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731872840.8060732</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731872841.1807868</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872840.8060732.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872841.1807868.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>6521</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6517.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731872841.5366862</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731872843.1839821</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872841.5366862.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872843.1839821.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6507.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6480.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-27</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731872844.9466798</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731872845.2844021</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872844.9466798.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872845.2844021.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6498.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6486.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>12</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731872845.4090576</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731872845.4090576.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6481</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6462.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731872847.4759147</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731872850.113073</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872847.4759147.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872850.113073.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>512.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.399999999999977</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731872850.6931794</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731872851.3952284</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872850.6931794.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872851.3952284.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>511.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>511.65</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731872852.0936663</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731872852.9955137</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872852.0936663.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872852.9955137.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>511.15</v>
+      </c>
+      <c r="L37" t="n">
+        <v>510.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731872853.181155</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731872853.5702968</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872853.181155.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872853.5702968.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>509.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>510.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731872853.85132</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731872854.1344485</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872853.85132.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872854.1344485.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731872855.1282039</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731872855.2521036</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872855.1282039.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872855.2521036.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>510.95</v>
+      </c>
+      <c r="L40" t="n">
+        <v>510.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731872855.293993</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731872855.6371474</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872855.293993.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872855.6371474.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>511</v>
+      </c>
+      <c r="L41" t="n">
+        <v>511.3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731872856.2727442</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731872856.2727442.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>510.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731872857.9520242</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731872858.8914933</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872857.9520242.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872858.8914933.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>228.78</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731872860.1555567</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731872861.1576629</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872860.1555567.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872861.1576629.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>229.39</v>
+      </c>
+      <c r="L44" t="n">
+        <v>229.31</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731872861.500465</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731872862.480536</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872861.500465.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872862.480536.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>229.35</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6500000000000057</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731872863.5134354</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731872865.4824853</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872863.5134354.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872865.4824853.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>228.55</v>
+      </c>
+      <c r="L46" t="n">
+        <v>228.86</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3100000000000023</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731872867.5114608</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731872868.3061254</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872867.5114608.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731872868.3061254.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>229.16</v>
+      </c>
+      <c r="L47" t="n">
+        <v>228.45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.710000000000008</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731872869.782261</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731872871.0779014</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872869.782261.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872871.0779014.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1024.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-3.800000000000068</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731872871.1213276</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731872871.1652305</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872871.1213276.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872871.1652305.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1023</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731872871.7258651</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731872872.7972507</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872871.7258651.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872872.7972507.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1028.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1025.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731872873.2520518</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731872873.952885</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872873.2520518.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872873.952885.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1023</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731872874.226452</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731872874.8936074</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872874.226452.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872874.8936074.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731872875.435701</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731872876.7449741</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872875.435701.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872876.7449741.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1021.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1021.8</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731872878.2808273</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731872879.4844346</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872878.2808273.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731872879.4844346.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1022.8</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731872880.0161152</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731872880.4697309</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872880.0161152.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872880.4697309.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L55" t="n">
+        <v>11.881</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01100000000000101</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731872881.100139</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731872883.0000467</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872881.100139.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872883.0000467.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>11.908</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11.926</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.01800000000000068</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731872883.5616438</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731872884.4788802</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872883.5616438.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872884.4788802.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>11.964</v>
+      </c>
+      <c r="L57" t="n">
+        <v>11.971</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.006999999999999673</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731872884.675063</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731872884.7279477</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872884.675063.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872884.7279477.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>11.955</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.958</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731872885.078341</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731872886.3559282</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872885.078341.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872886.3559282.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>11.944</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.949</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.004999999999999005</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731872887.226844</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731872887.3897283</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872887.226844.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872887.3897283.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>11.942</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11.947</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.004999999999999005</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731872888.87136</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731872889.621755</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872888.87136.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872889.621755.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11.935</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.006999999999999673</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731872891.4656012</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731872891.4656012.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>11.966</v>
+      </c>
+      <c r="L62" t="n">
+        <v>11.969</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731872894.33702</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731872895.7808964</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872894.33702.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872895.7808964.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>124.66</v>
+      </c>
+      <c r="L63" t="n">
+        <v>124.86</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731872896.1501834</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731872896.5779214</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872896.1501834.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872896.5779214.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>125.08</v>
+      </c>
+      <c r="L64" t="n">
+        <v>124.76</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731872896.7934494</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731872897.4900694</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872896.7934494.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872897.4900694.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>124.62</v>
+      </c>
+      <c r="L65" t="n">
+        <v>124.64</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731872897.685547</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731872900.0384383</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872897.685547.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872900.0384383.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>123.82</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731872900.3659067</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731872900.857899</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872900.3659067.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872900.857899.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="L67" t="n">
+        <v>124</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731872902.462836</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731872902.6028118</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872902.462836.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872902.6028118.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>123.98</v>
+      </c>
+      <c r="L68" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731872903.148079</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731872903.19216</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872903.148079.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872903.19216.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="L69" t="n">
+        <v>123.82</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731872903.2615166</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731872903.2615166.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731872906.321658</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731872906.3984985</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872906.321658.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872906.3984985.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="L71" t="n">
+        <v>161.72</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731872907.0881996</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731872908.2999375</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872907.0881996.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872908.2999375.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>161.88</v>
+      </c>
+      <c r="L72" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731872908.8264256</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731872909.1402209</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872908.8264256.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872909.1402209.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="L73" t="n">
+        <v>162.16</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.460000000000008</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731872909.859748</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731872910.7681699</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872909.859748.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872910.7681699.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>161.36</v>
+      </c>
+      <c r="L74" t="n">
+        <v>160.74</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.6200000000000045</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731872910.8688467</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731872911.5577438</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872910.8688467.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872911.5577438.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>160.04</v>
+      </c>
+      <c r="L75" t="n">
+        <v>160.46</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4200000000000159</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731872911.716136</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731872912.1400065</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872911.716136.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872912.1400065.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="L76" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731872913.091049</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731872914.0620806</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872913.091049.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872914.0620806.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>161.44</v>
+      </c>
+      <c r="L77" t="n">
+        <v>161.26</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731872914.3543549</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731872914.3543549.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="L78" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1400000000000148</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731872915.946156</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731872916.648737</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872915.946156.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872916.648737.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>49.745</v>
+      </c>
+      <c r="L79" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.06499999999999773</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731872916.71678</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731872916.8391342</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872916.71678.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872916.8391342.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="L80" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731872916.855126</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731872917.3924289</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872916.855126.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872917.3924289.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="L81" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731872917.4353411</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731872917.854121</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872917.4353411.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872917.854121.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>49.675</v>
+      </c>
+      <c r="L82" t="n">
+        <v>49.605</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731872917.8989735</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731872918.0046253</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872917.8989735.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872918.0046253.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>49.605</v>
+      </c>
+      <c r="L83" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731872918.6626852</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731872919.545675</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872918.6626852.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872919.545675.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="L84" t="n">
+        <v>49.495</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731872919.9450998</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731872920.0751903</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872919.9450998.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872920.0751903.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="L85" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731872920.4624178</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731872922.0335727</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872920.4624178.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872922.0335727.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>49.235</v>
+      </c>
+      <c r="L86" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.09499999999999886</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731872922.2421858</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731872922.525146</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872922.2421858.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872922.525146.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>49.21</v>
+      </c>
+      <c r="L87" t="n">
+        <v>49.225</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731872924.3974423</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731872924.538377</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872924.3974423.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872924.538377.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>49.405</v>
+      </c>
+      <c r="L88" t="n">
+        <v>49.35</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731872924.7078</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731872925.1960623</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872924.7078.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872925.1960623.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="L89" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731872925.5464447</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731872925.5464447.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>49.305</v>
+      </c>
+      <c r="L90" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.1450000000000031</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731872926.7024157</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731872926.8160722</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872926.7024157.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872926.8160722.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1386.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1385.2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731872927.2289448</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731872930.1862326</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872927.2289448.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872930.1862326.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1390.6</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1400.6</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731872930.389303</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731872931.113227</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872930.389303.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.113227.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1397.4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1394.4</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731872931.4947743</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731872931.6007707</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.4947743.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.6007707.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1396.2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1392.6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3.600000000000136</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731872931.7888987</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731872931.8317864</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.7888987.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.8317864.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1392.4</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1393.6</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.199999999999818</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731872931.9326103</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731872933.6960535</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872931.9326103.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872933.6960535.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1390.8</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1388</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-2.799999999999955</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731872933.8999293</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731872934.0502996</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872933.8999293.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872934.0502996.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1388.4</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1388.8</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.3999999999998636</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731872935.2227402</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731872936.386336</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872935.2227402.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731872936.386336.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1390.4</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1393.6</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-3.199999999999818</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731872938.094588</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731872938.8222558</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872938.094588.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872938.8222558.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>61.59</v>
+      </c>
+      <c r="L99" t="n">
+        <v>61.44</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731872939.24627</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731872939.425445</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872939.24627.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872939.425445.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>61.49</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.1900000000000048</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731872939.7223434</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731872940.3131337</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872939.7223434.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872940.3131337.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="L101" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731872941.3624308</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731872942.417928</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872941.3624308.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872942.417928.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="L102" t="n">
+        <v>61.09</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731872943.18654</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731872943.3808577</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872943.18654.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872943.3808577.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="L103" t="n">
+        <v>60.85</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731872944.073845</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1731872945.01299</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872944.073845.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872945.01299.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="L104" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731872945.125838</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731872946.1350586</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872945.125838.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872946.1350586.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="L105" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.1600000000000037</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731872946.8660283</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1731872947.3349905</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872946.8660283.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872947.3349905.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="L106" t="n">
+        <v>60.93</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.1799999999999997</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731872948.0518935</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731872948.9457555</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872948.0518935.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872948.9457555.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="L107" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731872949.1515424</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731872949.1515424.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="L108" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731872950.746795</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731872950.9903936</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872950.746795.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872950.9903936.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>98.77</v>
+      </c>
+      <c r="L109" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.269999999999996</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731872952.8358982</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731872953.1976445</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872952.8358982.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872953.1976445.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="L110" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.230000000000004</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731872953.9510946</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731872955.1733992</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872953.9510946.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872955.1733992.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="L111" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731872955.2228832</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731872955.4698572</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872955.2228832.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872955.4698572.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="L112" t="n">
+        <v>98.03</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731872956.0064788</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731872956.8688807</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872956.0064788.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872956.8688807.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="L113" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731872958.3337328</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1731872958.8161445</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872958.3337328.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872958.8161445.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>97.86</v>
+      </c>
+      <c r="L114" t="n">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731872961.1794193</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731872961.1794193.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="L115" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731872961.774288</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731872961.9252486</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872961.774288.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872961.9252486.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="L116" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.3099999999999952</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731872962.4684117</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731872962.9911628</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872962.4684117.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872962.9911628.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="L117" t="n">
+        <v>56.18</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731872964.3317928</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731872965.275868</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872964.3317928.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872965.275868.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>55.91</v>
+      </c>
+      <c r="L118" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.1600000000000037</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731872966.6303198</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731872968.532921</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872966.6303198.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872968.532921.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="L119" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.0800000000000054</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731872968.8343353</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731872969.1328015</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872968.8343353.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872969.1328015.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="L120" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731872970.718203</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731872970.9237614</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872970.718203.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731872970.9237614.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="L121" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731872971.4718025</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731872975.303355</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872971.4718025.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872975.303355.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>147.48</v>
+      </c>
+      <c r="L122" t="n">
+        <v>153.66</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-6.180000000000007</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-4.19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731872975.674521</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731872976.1882231</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872975.674521.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872976.1882231.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>153.36</v>
+      </c>
+      <c r="L123" t="n">
+        <v>153.72</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.3599999999999852</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731872976.4827435</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731872977.8143306</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872976.4827435.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872977.8143306.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>153.96</v>
+      </c>
+      <c r="L124" t="n">
+        <v>155.74</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-1.780000000000001</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-1.16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731872978.2191002</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731872979.1290798</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872978.2191002.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872979.1290798.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="L125" t="n">
+        <v>154.22</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-0.5800000000000125</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731872979.3670273</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1731872980.4713154</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872979.3670273.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872980.4713154.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="L126" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.4800000000000182</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1731872982.1335032</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1731872983.030587</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872982.1335032.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872983.030587.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>154.32</v>
+      </c>
+      <c r="L127" t="n">
+        <v>153.52</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.7999999999999829</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1731872983.7876678</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731872983.7876678.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>152.58</v>
+      </c>
+      <c r="L128" t="n">
+        <v>152.74</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1731872988.486212</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1731872989.0946815</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872988.486212.png</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872989.0946815.png</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="L129" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.06999999999999673</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1731872989.7935927</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1731872993.176589</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872989.7935927.png</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872993.176589.png</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>20.344</v>
+      </c>
+      <c r="L130" t="n">
+        <v>20.327</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.01699999999999946</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1731872993.527619</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1731872994.2122216</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872993.527619.png</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872994.2122216.png</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>20.379</v>
+      </c>
+      <c r="L131" t="n">
+        <v>20.321</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.05799999999999983</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1731872994.3598707</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731872994.3598707.png</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>20.261</v>
+      </c>
+      <c r="L132" t="n">
+        <v>20.161</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1731872996.3003578</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1731872997.2375493</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872996.3003578.png</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872997.2375493.png</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>679.85</v>
+      </c>
+      <c r="L133" t="n">
+        <v>678.35</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1731872997.623244</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1731872997.7257798</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872997.623244.png</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872997.7257798.png</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>677.85</v>
+      </c>
+      <c r="L134" t="n">
+        <v>678.7</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.8500000000000227</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1731872998.1887975</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1731872998.8874512</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872998.1887975.png</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731872998.8874512.png</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>679.45</v>
+      </c>
+      <c r="L135" t="n">
+        <v>680.35</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-0.8999999999999773</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1731873000.0696874</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1731873000.41961</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873000.0696874.png</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873000.41961.png</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>680.15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.649999999999977</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1731873000.9110057</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1731873002.443579</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873000.9110057.png</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873002.443579.png</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>677.35</v>
+      </c>
+      <c r="L137" t="n">
+        <v>677.05</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.3000000000000682</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1731873002.896306</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1731873003.7716546</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873002.896306.png</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873003.7716546.png</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>677.05</v>
+      </c>
+      <c r="L138" t="n">
+        <v>678.1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-1.050000000000068</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1731873004.1622474</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1731873004.5356295</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873004.1622474.png</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873004.5356295.png</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>676.25</v>
+      </c>
+      <c r="L139" t="n">
+        <v>678</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1731873005.5527923</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731873005.5527923.png</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>676.3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>675.7</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1731873006.131408</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1731873007.5067425</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873006.131408.png</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873007.5067425.png</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>156.13</v>
+      </c>
+      <c r="L141" t="n">
+        <v>156.64</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.5099999999999909</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1731873009.750209</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1731873010.7731326</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873009.750209.png</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873010.7731326.png</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>157.83</v>
+      </c>
+      <c r="L142" t="n">
+        <v>157</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.8300000000000125</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1731873012.17024</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1731873014.2430105</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873012.17024.png</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873014.2430105.png</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>156.03</v>
+      </c>
+      <c r="L143" t="n">
+        <v>154.74</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-1.289999999999992</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1731873015.6398358</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1731873016.499571</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873015.6398358.png</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731873016.499571.png</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="L144" t="n">
+        <v>155.59</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1731873017.6431816</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1731873018.5942104</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873017.6431816.png</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873018.5942104.png</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0.09724000000000001</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.09748000000000001</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.0002400000000000041</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1731873018.675696</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1731873019.82388</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873018.675696.png</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873019.82388.png</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.09760000000000001</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.0003999999999999976</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1731873020.4890237</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1731873021.7717278</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873020.4890237.png</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873021.7717278.png</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0.09816000000000001</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.09796000000000001</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.0002000000000000057</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1731873022.2896707</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1731873025.0575616</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873022.2896707.png</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873025.0575616.png</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0.09742000000000001</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-2.000000000000612e-05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1731873026.7290056</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1731873027.015594</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873026.7290056.png</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873027.015594.png</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0.09774000000000001</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.09724000000000001</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.0005000000000000004</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702177.7334285</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1731702178.7459724</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702177.7334285.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702178.7459724.png</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1731873029.0793774</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1731873031.6667926</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731873029.0793774.png</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731873031.6667926.png</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>2949</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2946.5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1731873031.999017</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1731873033.0801373</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731873031.999017.png</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731873033.0801373.png</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
         <v>2940.7</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L151" t="n">
         <v>2942</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M151" t="n">
         <v>1.300000000000182</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N151" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -650,7 +9100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,42 +9143,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.800000000000182</v>
+        <v>0.2049999999999983</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.900000000000091</v>
+        <v>0.01708333333333319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.979999999999905</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1799999999999913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4500000000000171</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04500000000000171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7600000000000193</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07600000000000193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.550000000000011</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1937500000000014</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007500000000000284</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02999999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.899999999999977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3624999999999972</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4400000000000119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05500000000000149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.002999999999998337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003749999999997922</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.99999999999977</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.624999999999972</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8400000000000034</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1200000000000005</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.399999999999864</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3428571428571234</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-6.740000000000038</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.9628571428571482</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1149999999999996</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.569999999999993</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3139999999999986</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.001320000000000002</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0002640000000000003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.002749999999999808</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04999999999999993</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SBERP</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7400000000000091</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1850000000000023</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4700000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.800000000000182</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.900000000000091</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
